--- a/API_List_so_far.xlsx
+++ b/API_List_so_far.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rs_yo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\xampp\htdocs\shopdotjo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,15 +59,9 @@
     <t>http://localhost/shopdotjo/itemspershop</t>
   </si>
   <si>
-    <t>{"shop":"Shop_Id"}</t>
-  </si>
-  <si>
     <t>itemspershop</t>
   </si>
   <si>
-    <t>{"subcategory":"subcategory_Id"}</t>
-  </si>
-  <si>
     <t>http://localhost/shopdotjo/itemspersub</t>
   </si>
   <si>
@@ -80,16 +74,10 @@
     <t>subcategories</t>
   </si>
   <si>
-    <t>{"category":"category_Id"}</t>
-  </si>
-  <si>
     <t>http://localhost/shopdotjo/reviewsperitem</t>
   </si>
   <si>
     <t>reviewsperitem</t>
-  </si>
-  <si>
-    <t>{"itemid":"Item_Id"}</t>
   </si>
   <si>
     <t>http://localhost/shopdotjo/toprateditems</t>
@@ -145,6 +133,18 @@
   </si>
   <si>
     <t>{"username":"username","password":"password","firstname":"firstname","lastname":"lastname","email":"email","phonenumber":"phonenumber","photopath":"photopath","gender":"gender","address":"address","dob":"dob"}</t>
+  </si>
+  <si>
+    <t>itemid=Item_Id</t>
+  </si>
+  <si>
+    <t>category=category_Id</t>
+  </si>
+  <si>
+    <t>subcategory=subcategory_Id</t>
+  </si>
+  <si>
+    <t>shop=Shop_Id</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,63 +577,63 @@
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>1</v>
@@ -644,72 +644,72 @@
     </row>
     <row r="9" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
